--- a/SuppXLS/Scen_Refinery.xlsx
+++ b/SuppXLS/Scen_Refinery.xlsx
@@ -1,26 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr updateLinks="never" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Testing_exes\Veda2.0_localhost_2.8.1.1_orig\Veda\Veda_models\Demo_models\DemoS_007_HD\SuppXLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\DemoModels_SelfLearning\DemoS_007_SL\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C2C87C5-7930-4186-8CE9-709450699F04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11385" activeTab="0"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="BY Data" sheetId="15" r:id="rId3"/>
-    <sheet name="Refinery" sheetId="2" r:id="rId4"/>
+    <sheet name="base_data" sheetId="16" r:id="rId1"/>
+    <sheet name="BY Data" sheetId="15" r:id="rId2"/>
+    <sheet name="Refinery" sheetId="2" r:id="rId3"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Maurizio Gargiulo</author>
@@ -69,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="50">
   <si>
     <t>Pset_CI</t>
   </si>
@@ -164,19 +178,61 @@
     <t>Refinery Relaxation Prod</t>
   </si>
   <si>
-    <t>~TFM_FILL</t>
-  </si>
-  <si>
-    <t>Operation_Sum_Avg_Count</t>
-  </si>
-  <si>
-    <t>Scenario Name</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
     <t>BASE</t>
+  </si>
+  <si>
+    <t>SourceScen</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>*1</t>
+  </si>
+  <si>
+    <t>~TFM_FILL-R: w=base_data;hcol=region</t>
+  </si>
+  <si>
+    <t>scenario</t>
+  </si>
+  <si>
+    <t>attribute</t>
+  </si>
+  <si>
+    <t>process</t>
+  </si>
+  <si>
+    <t>commodity</t>
+  </si>
+  <si>
+    <t>lim_type</t>
+  </si>
+  <si>
+    <t>time_slice</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>commodity_group</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
+    <t>stage</t>
+  </si>
+  <si>
+    <t>sow</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>ANNUAL</t>
+  </si>
+  <si>
+    <t>2005</t>
   </si>
 </sst>
 </file>
@@ -186,19 +242,13 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -250,6 +300,13 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -312,6 +369,7 @@
       <bottom style="medium">
         <color auto="1"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -320,228 +378,96 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment/>
-      <protection/>
-    </xf>
+  <cellStyleXfs count="23">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="22" applyBorder="1">
-      <alignment/>
-      <protection/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="3" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="22">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="21" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="24">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="24" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="10" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="5"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="9" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="21" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="28">
+  <cellStyles count="23">
+    <cellStyle name="Comma 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Good" xfId="2" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="15" builtinId="5"/>
-    <cellStyle name="Currency" xfId="16" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="17" builtinId="7"/>
-    <cellStyle name="Comma" xfId="18" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="19" builtinId="6"/>
-    <cellStyle name="Comma 2" xfId="20"/>
-    <cellStyle name="Good" xfId="21" builtinId="26"/>
-    <cellStyle name="Normal 10" xfId="22"/>
-    <cellStyle name="Normal 2" xfId="23"/>
-    <cellStyle name="Normal 3" xfId="24"/>
-    <cellStyle name="Normal 4" xfId="25"/>
-    <cellStyle name="Normal 4 2" xfId="26"/>
-    <cellStyle name="Normal 8" xfId="27"/>
-    <cellStyle name="Normal 9 2" xfId="28"/>
-    <cellStyle name="Normale_B2020" xfId="29"/>
-    <cellStyle name="Percent 2" xfId="30"/>
-    <cellStyle name="Percent 3" xfId="31"/>
-    <cellStyle name="Percent 3 2" xfId="32"/>
-    <cellStyle name="Percent 3 3" xfId="33"/>
-    <cellStyle name="Percent 4" xfId="34"/>
-    <cellStyle name="Percent 4 2" xfId="35"/>
-    <cellStyle name="Percent 4 3" xfId="36"/>
-    <cellStyle name="Percent 5" xfId="37"/>
-    <cellStyle name="Percent 5 2" xfId="38"/>
-    <cellStyle name="Percent 6" xfId="39"/>
-    <cellStyle name="Percent 7" xfId="40"/>
-    <cellStyle name="Standard_Sce_D_Extraction" xfId="41"/>
+    <cellStyle name="Normal 10" xfId="3" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="Normal 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="Normal 3" xfId="5" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="Normal 4" xfId="6" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="Normal 4 2" xfId="7" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="Normal 8" xfId="8" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="Normal 9 2" xfId="9" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="Normale_B2020" xfId="10" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="Percent 2" xfId="11" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="Percent 3" xfId="12" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="Percent 3 2" xfId="13" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
+    <cellStyle name="Percent 3 3" xfId="14" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
+    <cellStyle name="Percent 4" xfId="15" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
+    <cellStyle name="Percent 4 2" xfId="16" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
+    <cellStyle name="Percent 4 3" xfId="17" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
+    <cellStyle name="Percent 5" xfId="18" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
+    <cellStyle name="Percent 5 2" xfId="19" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
+    <cellStyle name="Percent 6" xfId="20" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
+    <cellStyle name="Percent 7" xfId="21" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
+    <cellStyle name="Standard_Sce_D_Extraction" xfId="22" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -554,7 +480,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -568,12 +494,12 @@
       <xdr:row>10</xdr:row>
       <xdr:rowOff>11481</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="2" name="TextBox 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0bb571c9-4b2b-4c96-8c1b-f0e9217e1c0d}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0BB571C9-4B2B-4C96-8C1B-F0E9217E1C0D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -581,10 +507,12 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="609600" y="1343025"/>
-          <a:ext cx="3657600" cy="581025"/>
+          <a:off x="609600" y="1266825"/>
+          <a:ext cx="3657600" cy="552450"/>
         </a:xfrm>
-        <a:prstGeom prst="rect"/>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
         <a:solidFill>
           <a:schemeClr val="accent6">
             <a:lumMod val="20000"/>
@@ -660,7 +588,7 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -674,12 +602,12 @@
       <xdr:row>17</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="2" name="TextBox 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1ff9f10f-48d7-45ba-a88f-ffd2fca0b001}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1FF9F10F-48D7-45BA-A88F-FFD2FCA0B001}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -687,10 +615,12 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="609600" y="2676525"/>
-          <a:ext cx="5476875" cy="600075"/>
+          <a:off x="609600" y="2533650"/>
+          <a:ext cx="5476875" cy="571500"/>
         </a:xfrm>
-        <a:prstGeom prst="rect"/>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
         <a:solidFill>
           <a:schemeClr val="accent6">
             <a:lumMod val="20000"/>
@@ -766,9 +696,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -806,9 +736,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -841,26 +771,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -893,26 +806,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1085,196 +981,277 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:J4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FC49DEA-9133-4964-AFED-5AA989C4B135}">
+  <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1">
-      <selection pane="topLeft" activeCell="C17" sqref="C17"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="10" max="10" width="10.8571428571429" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="2" spans="2:9" ht="15">
-      <c r="B2" s="1" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K1" t="s">
+        <v>46</v>
+      </c>
+      <c r="L1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-    </row>
-    <row r="3" spans="2:10" ht="15.75" thickBot="1">
-      <c r="B3" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="2:10" ht="15">
-      <c r="B4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="B2" t="s">
         <v>29</v>
       </c>
-      <c r="G4">
-        <v>2005</v>
-      </c>
-      <c r="H4" s="18">
+      <c r="C2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L2">
         <v>9400.4213999999993</v>
       </c>
-      <c r="I4" s="18">
+      <c r="M2">
         <v>21934.316599999998</v>
       </c>
-      <c r="J4" s="12" t="s">
-        <v>20</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="9" r:id="rId2"/>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="C2:I4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="9" max="9" width="10.86328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:9" x14ac:dyDescent="0.45">
+      <c r="C2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+    </row>
+    <row r="3" spans="3:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C3" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="3:9" x14ac:dyDescent="0.45">
+      <c r="C4" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4">
+        <v>2005</v>
+      </c>
+      <c r="H4" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="I4" s="13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:IT11"/>
   <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A1">
-      <selection pane="topLeft" activeCell="L24" sqref="L24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="10.1428571428571" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.85714285714286" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.28571428571429" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.14285714285714" customWidth="1"/>
-    <col min="6" max="6" width="14.2857142857143" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.7142857142857" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="10.7142857142857" customWidth="1"/>
-    <col min="10" max="10" width="8.71428571428571" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.8571428571429" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.42857142857143" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.57142857142857" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.57142857142857" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.71428571428571" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="8.42857142857143" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="23.4285714285714" style="14" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.14285714285714" style="14" customWidth="1"/>
+    <col min="2" max="2" width="10.1328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.86328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.1328125" customWidth="1"/>
+    <col min="6" max="6" width="14.265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.73046875" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="10.73046875" customWidth="1"/>
+    <col min="10" max="10" width="8.73046875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.86328125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.3984375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.59765625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.59765625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.73046875" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="8.3984375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="23.3984375" style="15" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.1328125" style="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="15">
+    <row r="1" spans="1:254" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="2:20" ht="15">
-      <c r="B2" s="1" t="s">
+    <row r="2" spans="1:254" x14ac:dyDescent="0.45">
+      <c r="B2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="2"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="S2" s="20" t="s">
+      <c r="J2" s="3"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+      <c r="S2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="T2" s="20"/>
-    </row>
-    <row r="3" spans="2:20" ht="15.75" thickBot="1">
-      <c r="B3" s="4" t="s">
+      <c r="T2" s="1"/>
+    </row>
+    <row r="3" spans="1:254" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="J3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="K3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="6" t="s">
+      <c r="L3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="M3" s="6" t="s">
+      <c r="M3" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="N3" s="6" t="s">
+      <c r="N3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="O3" s="6" t="s">
+      <c r="O3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="P3" s="6" t="s">
+      <c r="P3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="Q3" s="6" t="s">
+      <c r="Q3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="S3" s="13" t="s">
+      <c r="S3" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="T3" s="13" t="s">
+      <c r="T3" s="14" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="3:16 254:254" ht="15">
+    <row r="4" spans="1:254" x14ac:dyDescent="0.45">
       <c r="C4" t="s">
         <v>28</v>
       </c>
@@ -1287,21 +1264,21 @@
       <c r="F4" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="10">
-        <v>0.50</v>
-      </c>
-      <c r="I4" s="10">
-        <v>0.50</v>
-      </c>
-      <c r="K4" s="12" t="s">
+      <c r="H4" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="I4" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="K4" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="P4" s="12" t="s">
+      <c r="P4" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="IT4" s="10"/>
-    </row>
-    <row r="5" spans="3:16" ht="15">
+      <c r="IT4" s="11"/>
+    </row>
+    <row r="5" spans="1:254" x14ac:dyDescent="0.45">
       <c r="C5" t="s">
         <v>28</v>
       </c>
@@ -1314,20 +1291,20 @@
       <c r="F5" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="10">
-        <v>0.50</v>
-      </c>
-      <c r="I5" s="10">
-        <v>0.50</v>
-      </c>
-      <c r="K5" s="12" t="s">
+      <c r="H5" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="I5" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="K5" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="P5" s="12" t="s">
+      <c r="P5" s="13" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="3:16" ht="15">
+    <row r="6" spans="1:254" x14ac:dyDescent="0.45">
       <c r="C6" t="s">
         <v>28</v>
       </c>
@@ -1340,20 +1317,20 @@
       <c r="F6" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="10">
-        <v>0.50</v>
-      </c>
-      <c r="I6" s="10">
-        <v>0.50</v>
-      </c>
-      <c r="K6" s="12" t="s">
+      <c r="H6" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="I6" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="K6" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="P6" s="12" t="s">
+      <c r="P6" s="13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="3:16" ht="15">
+    <row r="7" spans="1:254" x14ac:dyDescent="0.45">
       <c r="C7" t="s">
         <v>28</v>
       </c>
@@ -1366,20 +1343,20 @@
       <c r="F7" t="s">
         <v>19</v>
       </c>
-      <c r="H7" s="10">
-        <v>0.50</v>
-      </c>
-      <c r="I7" s="10">
-        <v>0.50</v>
-      </c>
-      <c r="K7" s="12" t="s">
+      <c r="H7" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="I7" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="K7" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="P7" s="12" t="s">
+      <c r="P7" s="13" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="3:16" ht="15">
+    <row r="8" spans="1:254" x14ac:dyDescent="0.45">
       <c r="C8" t="s">
         <v>28</v>
       </c>
@@ -1392,20 +1369,20 @@
       <c r="F8" t="s">
         <v>19</v>
       </c>
-      <c r="H8" s="10">
-        <v>0.50</v>
-      </c>
-      <c r="I8" s="10">
-        <v>0.50</v>
-      </c>
-      <c r="K8" s="12" t="s">
+      <c r="H8" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="I8" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="K8" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="P8" s="12" t="s">
+      <c r="P8" s="13" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="3:16" ht="15">
+    <row r="9" spans="1:254" x14ac:dyDescent="0.45">
       <c r="C9" t="s">
         <v>28</v>
       </c>
@@ -1418,54 +1395,54 @@
       <c r="F9" t="s">
         <v>19</v>
       </c>
-      <c r="H9" s="10">
-        <v>0.50</v>
-      </c>
-      <c r="I9" s="10">
-        <v>0.50</v>
-      </c>
-      <c r="K9" s="12" t="s">
+      <c r="H9" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="I9" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="K9" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="P9" s="12" t="s">
+      <c r="P9" s="13" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="2:17" ht="15">
-      <c r="B10" s="9"/>
-      <c r="C10" s="9" t="s">
+    <row r="10" spans="1:254" x14ac:dyDescent="0.45">
+      <c r="B10" s="10"/>
+      <c r="C10" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10" s="10">
         <v>2020</v>
       </c>
-      <c r="F10" s="9" t="s">
+      <c r="F10" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="G10" s="9"/>
-      <c r="H10" s="8">
-        <v>0.50</v>
-      </c>
-      <c r="I10" s="8">
-        <v>0.50</v>
-      </c>
-      <c r="J10" s="9"/>
-      <c r="K10" s="7" t="s">
+      <c r="G10" s="10"/>
+      <c r="H10" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="I10" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="J10" s="10"/>
+      <c r="K10" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="L10" s="9"/>
-      <c r="M10" s="9"/>
-      <c r="N10" s="9"/>
-      <c r="O10" s="9"/>
-      <c r="P10" s="7" t="s">
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10"/>
+      <c r="O10" s="10"/>
+      <c r="P10" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="Q10" s="9"/>
-    </row>
-    <row r="11" spans="3:20" ht="15">
+      <c r="Q10" s="10"/>
+    </row>
+    <row r="11" spans="1:254" x14ac:dyDescent="0.45">
       <c r="C11" t="s">
         <v>28</v>
       </c>
@@ -1475,22 +1452,22 @@
       <c r="E11">
         <v>2020</v>
       </c>
-      <c r="H11" s="19">
-        <f>'BY Data'!H4*(1+Refinery!S11)</f>
+      <c r="H11" s="20">
+        <f>base_data!L2*(1+Refinery!S11)</f>
         <v>11750.526749999999</v>
       </c>
-      <c r="I11" s="19">
-        <f>'BY Data'!I4*(1+Refinery!T11)</f>
+      <c r="I11" s="20">
+        <f>base_data!M2*(1+Refinery!T11)</f>
         <v>28514.611579999997</v>
       </c>
-      <c r="K11" s="12" t="s">
+      <c r="K11" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="S11" s="11">
+      <c r="S11" s="12">
         <v>0.25</v>
       </c>
-      <c r="T11" s="11">
-        <v>0.30</v>
+      <c r="T11" s="12">
+        <v>0.3</v>
       </c>
     </row>
   </sheetData>
@@ -1498,7 +1475,7 @@
     <mergeCell ref="S2:T2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>